--- a/data/trans_orig/CoTrAQ_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>258192</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>245358</v>
+        <v>245033</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268839</v>
+        <v>269348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8727480619253467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8293665865984035</v>
+        <v>0.8282659145409678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9087380015361185</v>
+        <v>0.9104582741495761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -763,19 +763,19 @@
         <v>158264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146808</v>
+        <v>146517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167862</v>
+        <v>167675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8410518170389742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.780171415799975</v>
+        <v>0.7786249984091674</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8920588569042918</v>
+        <v>0.8910642740004446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>383</v>
@@ -784,19 +784,19 @@
         <v>416456</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>398237</v>
+        <v>399876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>432068</v>
+        <v>430954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8604251867464217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8227824721634556</v>
+        <v>0.8261687848661781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8926793158279734</v>
+        <v>0.8903785014980133</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>37646</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26999</v>
+        <v>26490</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50480</v>
+        <v>50805</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1272519380746533</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09126199846388149</v>
+        <v>0.08954172585042397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1706334134015966</v>
+        <v>0.1717340854590325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -834,19 +834,19 @@
         <v>29910</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20312</v>
+        <v>20499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41366</v>
+        <v>41657</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1589481829610257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1079411430957083</v>
+        <v>0.1089357259995554</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2198285842000252</v>
+        <v>0.2213750015908331</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -855,19 +855,19 @@
         <v>67556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51944</v>
+        <v>53058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85775</v>
+        <v>84136</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1395748132535783</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1073206841720266</v>
+        <v>0.1096214985019866</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1772175278365443</v>
+        <v>0.1738312151338219</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>189996</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172663</v>
+        <v>173182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202934</v>
+        <v>203041</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7612947755846595</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6918436035416033</v>
+        <v>0.6939224566195585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.813138898899154</v>
+        <v>0.8135669438598226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -980,19 +980,19 @@
         <v>98412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86257</v>
+        <v>85478</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111991</v>
+        <v>110907</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6453212318116075</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5656154247556201</v>
+        <v>0.5605077243467375</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7343602719091898</v>
+        <v>0.7272525298477438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>262</v>
@@ -1001,19 +1001,19 @@
         <v>288407</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268290</v>
+        <v>267475</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>306949</v>
+        <v>305993</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7173072370332949</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6672743565145846</v>
+        <v>0.6652462627001151</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7634230124998784</v>
+        <v>0.7610450674480512</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>59573</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46635</v>
+        <v>46528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76906</v>
+        <v>76387</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2387052244153405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1868611011008464</v>
+        <v>0.1864330561401773</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3081563964583972</v>
+        <v>0.3060775433804409</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1051,19 +1051,19 @@
         <v>54089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40510</v>
+        <v>41594</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66244</v>
+        <v>67023</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3546787681883926</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2656397280908099</v>
+        <v>0.272747470152256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4343845752443798</v>
+        <v>0.4394922756532623</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>101</v>
@@ -1072,19 +1072,19 @@
         <v>113662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95120</v>
+        <v>96076</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133779</v>
+        <v>134594</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.282692762966705</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2365769875001215</v>
+        <v>0.2389549325519488</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3327256434854154</v>
+        <v>0.3347537372998847</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>214536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>200241</v>
+        <v>200230</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>227542</v>
+        <v>227758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7784517873990702</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7265831289234774</v>
+        <v>0.726541533705907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8256442928773807</v>
+        <v>0.8264292047932675</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -1197,19 +1197,19 @@
         <v>88204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80016</v>
+        <v>79104</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95429</v>
+        <v>95412</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8277998472475915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7509569417365453</v>
+        <v>0.7423941299739578</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8956131718392883</v>
+        <v>0.8954540793507245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>293</v>
@@ -1218,19 +1218,19 @@
         <v>302740</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286307</v>
+        <v>286206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>317472</v>
+        <v>318062</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7922113171821126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7492116281877095</v>
+        <v>0.7489448260300199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.830764013241709</v>
+        <v>0.8323061262650817</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>61057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48051</v>
+        <v>47835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75352</v>
+        <v>75363</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2215482126009298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1743557071226192</v>
+        <v>0.1735707952067324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2734168710765226</v>
+        <v>0.273458466294092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1268,19 +1268,19 @@
         <v>18348</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11123</v>
+        <v>11140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26536</v>
+        <v>27448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1722001527524085</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1043868281607116</v>
+        <v>0.1045459206492755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2490430582634543</v>
+        <v>0.2576058700260414</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -1289,19 +1289,19 @@
         <v>79405</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64673</v>
+        <v>64083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95838</v>
+        <v>95939</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2077886828178874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.169235986758291</v>
+        <v>0.1676938737349183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2507883718122906</v>
+        <v>0.25105517396998</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>242298</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>219469</v>
+        <v>221495</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261923</v>
+        <v>261595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5919218811520383</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5361512803985489</v>
+        <v>0.5411002392787181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6398660556463882</v>
+        <v>0.6390632913779961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1414,19 +1414,19 @@
         <v>163876</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145160</v>
+        <v>146766</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179349</v>
+        <v>180522</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5733986425992011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5079135451117345</v>
+        <v>0.5135333438148996</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6275400141361895</v>
+        <v>0.631642614495742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>387</v>
@@ -1435,19 +1435,19 @@
         <v>406174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>380754</v>
+        <v>379023</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>431150</v>
+        <v>432734</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.584306295201374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5477384679867121</v>
+        <v>0.5452481550500746</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.620236847183615</v>
+        <v>0.6225153322164396</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>167043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147418</v>
+        <v>147746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189872</v>
+        <v>187846</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4080781188479617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3601339443536119</v>
+        <v>0.3609367086220036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4638487196014515</v>
+        <v>0.4588997607212817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -1485,19 +1485,19 @@
         <v>121921</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106448</v>
+        <v>105275</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140637</v>
+        <v>139031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4266013574007989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3724599858638105</v>
+        <v>0.368357385504258</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4920864548882655</v>
+        <v>0.4864666561851001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>268</v>
@@ -1506,19 +1506,19 @@
         <v>288964</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263988</v>
+        <v>262404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>314384</v>
+        <v>316115</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4156937047986261</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3797631528163852</v>
+        <v>0.3774846677835604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4522615320132879</v>
+        <v>0.4547518449499255</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>72642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60008</v>
+        <v>59564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84802</v>
+        <v>84082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4991349351961028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4123249640566004</v>
+        <v>0.4092730642706022</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.582692165603315</v>
+        <v>0.5777436573602829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -1631,19 +1631,19 @@
         <v>81397</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67838</v>
+        <v>68294</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95105</v>
+        <v>95692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4824332154713116</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4020727851665731</v>
+        <v>0.4047770962421809</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5636834767489272</v>
+        <v>0.5671589245660229</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -1652,19 +1652,19 @@
         <v>154039</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>136791</v>
+        <v>137087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>171607</v>
+        <v>175176</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4901679394562929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4352842159454715</v>
+        <v>0.4362242789721476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5460716154795948</v>
+        <v>0.5574297989736093</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>72893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60733</v>
+        <v>61453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85527</v>
+        <v>85971</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5008650648038973</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.417307834396685</v>
+        <v>0.4222563426397171</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5876750359433995</v>
+        <v>0.5907269357293978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -1702,19 +1702,19 @@
         <v>87324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73616</v>
+        <v>73029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>100883</v>
+        <v>100427</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5175667845286884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4363165232510728</v>
+        <v>0.4328410754339771</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5979272148334269</v>
+        <v>0.5952229037578191</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>148</v>
@@ -1723,19 +1723,19 @@
         <v>160218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>142650</v>
+        <v>139081</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177466</v>
+        <v>177170</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5098320605437071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4539283845204052</v>
+        <v>0.4425702010263907</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5647157840545285</v>
+        <v>0.5637757210278523</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>977663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>546</v>
@@ -1848,19 +1848,19 @@
         <v>590152</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1467</v>
@@ -1869,19 +1869,19 @@
         <v>1567815</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>398213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>363820</v>
+        <v>365362</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>433212</v>
+        <v>433754</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2894251821981535</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2644278577024006</v>
+        <v>0.2655487443565437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3148629711980049</v>
+        <v>0.3152568326362643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>286</v>
@@ -1919,19 +1919,19 @@
         <v>311593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>282950</v>
+        <v>281744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>342444</v>
+        <v>341111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3455442571823424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3137803527508142</v>
+        <v>0.312442865836102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3797567787887939</v>
+        <v>0.3782784690918711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>658</v>
@@ -1940,19 +1940,19 @@
         <v>709806</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>662111</v>
+        <v>666414</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>755504</v>
+        <v>761652</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3116435876612533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2907029917106331</v>
+        <v>0.2925921065120196</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3317077310862672</v>
+        <v>0.3344070328302141</v>
       </c>
     </row>
     <row r="21">
@@ -2285,19 +2285,19 @@
         <v>207122</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>190759</v>
+        <v>192104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>221816</v>
+        <v>222899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7502978743345384</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6910215856485686</v>
+        <v>0.6958944132865722</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8035278448842857</v>
+        <v>0.8074512669254359</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -2306,19 +2306,19 @@
         <v>145062</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129911</v>
+        <v>131282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157834</v>
+        <v>158429</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.677307733191416</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6065684876888404</v>
+        <v>0.6129681884187591</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7369449359738163</v>
+        <v>0.7397230988690506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>332</v>
@@ -2327,19 +2327,19 @@
         <v>352184</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332138</v>
+        <v>332438</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>372826</v>
+        <v>371462</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7184093446552643</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.677518678642876</v>
+        <v>0.6781308659891216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7605169959356433</v>
+        <v>0.7577338956295958</v>
       </c>
     </row>
     <row r="5">
@@ -2356,19 +2356,19 @@
         <v>68931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54237</v>
+        <v>53154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85294</v>
+        <v>83949</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2497021256654616</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1964721551157143</v>
+        <v>0.1925487330745641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3089784143514314</v>
+        <v>0.304105586713428</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -2377,19 +2377,19 @@
         <v>69112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56340</v>
+        <v>55745</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84263</v>
+        <v>82892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.322692266808584</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2630550640261837</v>
+        <v>0.2602769011309494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3934315123111596</v>
+        <v>0.3870318115812412</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -2398,19 +2398,19 @@
         <v>138043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117401</v>
+        <v>118765</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158089</v>
+        <v>157789</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2815906553447357</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2394830040643568</v>
+        <v>0.2422661043704042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3224813213571242</v>
+        <v>0.3218691340108784</v>
       </c>
     </row>
     <row r="6">
@@ -2502,19 +2502,19 @@
         <v>143482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127024</v>
+        <v>126828</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158849</v>
+        <v>159579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5898866882456159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5222231517723984</v>
+        <v>0.5214183990452863</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6530644134433983</v>
+        <v>0.6560652552714867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -2523,19 +2523,19 @@
         <v>87036</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74239</v>
+        <v>73631</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101901</v>
+        <v>100766</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4600791327881424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3924322588288567</v>
+        <v>0.3892212100205091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5386547295127266</v>
+        <v>0.5326599967991612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -2544,19 +2544,19 @@
         <v>230518</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207603</v>
+        <v>210153</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252283</v>
+        <v>252380</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5330972575736244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4801043631291383</v>
+        <v>0.4859997542720514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5834314918588717</v>
+        <v>0.5836549575744482</v>
       </c>
     </row>
     <row r="8">
@@ -2573,19 +2573,19 @@
         <v>99755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84388</v>
+        <v>83658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116213</v>
+        <v>116409</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4101133117543841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3469355865566015</v>
+        <v>0.3439347447285133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4777768482276015</v>
+        <v>0.4785816009547135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>100</v>
@@ -2594,19 +2594,19 @@
         <v>102140</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>87275</v>
+        <v>88410</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>114937</v>
+        <v>115545</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5399208672118575</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4613452704872733</v>
+        <v>0.4673400032008388</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6075677411711433</v>
+        <v>0.610778789979491</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -2615,19 +2615,19 @@
         <v>201895</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>180130</v>
+        <v>180033</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>224810</v>
+        <v>222260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4669027424263756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4165685081411284</v>
+        <v>0.4163450424255519</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5198956368708617</v>
+        <v>0.5140002457279486</v>
       </c>
     </row>
     <row r="9">
@@ -2719,19 +2719,19 @@
         <v>143456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128406</v>
+        <v>127480</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156624</v>
+        <v>157348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6631482495619551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5935793845495582</v>
+        <v>0.5892996691677409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7240225606654014</v>
+        <v>0.7273674497516774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -2740,19 +2740,19 @@
         <v>55653</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49753</v>
+        <v>48960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60435</v>
+        <v>60449</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8546557182065353</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.764046535714116</v>
+        <v>0.751866138237156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9280812432354572</v>
+        <v>0.9282961677083749</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>190</v>
@@ -2761,19 +2761,19 @@
         <v>199109</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182695</v>
+        <v>182768</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214383</v>
+        <v>214412</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7074575987013163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6491366054389146</v>
+        <v>0.6493960399892359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7617266278529684</v>
+        <v>0.7618307319937143</v>
       </c>
     </row>
     <row r="11">
@@ -2790,19 +2790,19 @@
         <v>72869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59701</v>
+        <v>58977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87919</v>
+        <v>88845</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3368517504380449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2759774393345987</v>
+        <v>0.2726325502483227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4064206154504419</v>
+        <v>0.4107003308322593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -2811,19 +2811,19 @@
         <v>9465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4683</v>
+        <v>4669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15365</v>
+        <v>16158</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1453442817934647</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07191875676454286</v>
+        <v>0.07170383229162525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2359534642858837</v>
+        <v>0.248133861762844</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -2832,19 +2832,19 @@
         <v>82334</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>67060</v>
+        <v>67031</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98748</v>
+        <v>98675</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2925424012986838</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2382733721470315</v>
+        <v>0.2381692680062856</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3508633945610853</v>
+        <v>0.3506039600107639</v>
       </c>
     </row>
     <row r="12">
@@ -2936,19 +2936,19 @@
         <v>211603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>189299</v>
+        <v>190643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234160</v>
+        <v>234435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4338779471152671</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3881447698931767</v>
+        <v>0.3909019818542774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4801294933640036</v>
+        <v>0.4806949038372757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>163</v>
@@ -2957,19 +2957,19 @@
         <v>167505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148195</v>
+        <v>150356</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>188017</v>
+        <v>186726</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4589917229212512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4060782937619729</v>
+        <v>0.4119999173193609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5151976164452182</v>
+        <v>0.5116598881110112</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>365</v>
@@ -2978,19 +2978,19 @@
         <v>379108</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>351041</v>
+        <v>351916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>408028</v>
+        <v>408997</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4446269579501312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4117095962769197</v>
+        <v>0.4127360752457109</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4785453246952171</v>
+        <v>0.4796823853381816</v>
       </c>
     </row>
     <row r="14">
@@ -3007,19 +3007,19 @@
         <v>276098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253541</v>
+        <v>253266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298402</v>
+        <v>297058</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5661220528847329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5198705066359973</v>
+        <v>0.5193050961627245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6118552301068236</v>
+        <v>0.6090980181457227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -3028,19 +3028,19 @@
         <v>197437</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>176925</v>
+        <v>178216</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216747</v>
+        <v>214586</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5410082770787488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4848023835547819</v>
+        <v>0.4883401118889896</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5939217062380271</v>
+        <v>0.5880000826806392</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>458</v>
@@ -3049,19 +3049,19 @@
         <v>473534</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>444614</v>
+        <v>443645</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>501601</v>
+        <v>500726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5553730420498688</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5214546753047828</v>
+        <v>0.5203176146618184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5882904037230804</v>
+        <v>0.5872639247542888</v>
       </c>
     </row>
     <row r="15">
@@ -3153,19 +3153,19 @@
         <v>63908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50060</v>
+        <v>52298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76921</v>
+        <v>78187</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3310916553544416</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2593484441908327</v>
+        <v>0.270944317277708</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3985071947385882</v>
+        <v>0.4050667551099815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -3174,19 +3174,19 @@
         <v>58219</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45825</v>
+        <v>46346</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70458</v>
+        <v>70976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2946036976472717</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2318832221529585</v>
+        <v>0.234520919493528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.356536679515637</v>
+        <v>0.3591566207316704</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -3195,19 +3195,19 @@
         <v>122127</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105394</v>
+        <v>103855</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141538</v>
+        <v>139871</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3126329705626137</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.269798625156303</v>
+        <v>0.2658579778599782</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3623224322832371</v>
+        <v>0.358055691974682</v>
       </c>
     </row>
     <row r="17">
@@ -3224,19 +3224,19 @@
         <v>129114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116101</v>
+        <v>114835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>142962</v>
+        <v>140724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6689083446455584</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6014928052614119</v>
+        <v>0.5949332448900186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7406515558091674</v>
+        <v>0.7290556827222923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>135</v>
@@ -3245,19 +3245,19 @@
         <v>139400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>127161</v>
+        <v>126643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>151794</v>
+        <v>151273</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7053963023527283</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6434633204843628</v>
+        <v>0.6408433792683296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7681167778470415</v>
+        <v>0.765479080506472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>254</v>
@@ -3266,19 +3266,19 @@
         <v>268513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>249102</v>
+        <v>250769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>285246</v>
+        <v>286785</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6873670294373863</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6376775677167629</v>
+        <v>0.6419443080253181</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7302013748436971</v>
+        <v>0.7341420221400217</v>
       </c>
     </row>
     <row r="18">
@@ -3370,19 +3370,19 @@
         <v>769570</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>497</v>
@@ -3391,19 +3391,19 @@
         <v>513476</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>483614</v>
+        <v>480295</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>548227</v>
+        <v>543425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.498022675534835</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.469059125112113</v>
+        <v>0.4658408710090554</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5317279512502816</v>
+        <v>0.5270709952606069</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1216</v>
@@ -3412,19 +3412,19 @@
         <v>1283045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1236799</v>
+        <v>1234757</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1336357</v>
+        <v>1336265</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5242557957619131</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5053595175574637</v>
+        <v>0.504525131748658</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5460392969530802</v>
+        <v>0.5460014739174851</v>
       </c>
     </row>
     <row r="20">
@@ -3441,19 +3441,19 @@
         <v>646767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>607493</v>
+        <v>610998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>682954</v>
+        <v>689230</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4566476881107582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4289183388126102</v>
+        <v>0.4313934183143039</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4821972040575991</v>
+        <v>0.4866284555824158</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>510</v>
@@ -3462,19 +3462,19 @@
         <v>517553</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>482802</v>
+        <v>487604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>547415</v>
+        <v>550734</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.501977324465165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4682720487497186</v>
+        <v>0.4729290047393932</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.530940874887887</v>
+        <v>0.5341591289909449</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1108</v>
@@ -3483,19 +3483,19 @@
         <v>1164320</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1111008</v>
+        <v>1111100</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1210566</v>
+        <v>1212608</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4757442042380869</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4539607030469198</v>
+        <v>0.453998526082515</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4946404824425364</v>
+        <v>0.4954748682513421</v>
       </c>
     </row>
     <row r="21">
